--- a/skrum_docs/03_BasicDesign/認可_20170403.xlsx
+++ b/skrum_docs/03_BasicDesign/認可_20170403.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28109"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28209"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Nohr/OneDrive/Skrum/07_プロダクト開発/プロダクト資料/02_基本設計/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Nohr/Dev/skrum/skrum_docs/03_BasicDesign/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="460" windowWidth="27720" windowHeight="17540" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="1080" yWindow="460" windowWidth="27720" windowHeight="17540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="m_role" sheetId="1" r:id="rId1"/>
     <sheet name="m_role_permission" sheetId="2" r:id="rId2"/>
     <sheet name="m_permission_settings" sheetId="3" r:id="rId3"/>
-    <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -30,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="56">
   <si>
     <t>ロールID</t>
     <phoneticPr fontId="1"/>
@@ -114,158 +113,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>CompanyProfile</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>User</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>View</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Edit</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>UserPermission</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Add_SuperAdmin</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Add_Admin</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Add_Normal</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Change_Admin</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Change_Normal</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>UserProfile</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>PasswordReset</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Reset_Admin</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Reset_Normal</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Delete_Self</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Delete_SuperAdmin</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Delete_Admin</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Delete_Normal</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Change_SuperAdmin</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Reset_SuperAdmin</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Group</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Add_Department</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Add_Team</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Delete_Department</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Delete_Team</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>GroupMember</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>GroupProfile</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Edit_Department</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Edit_Team</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Okr</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Add</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ChangeOwner_SuperAdmin</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ChangeOwner_Admin</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ChangeOwner_Normal</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Change</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Timeframe</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Plan</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Payment</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>0001</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -284,15 +131,133 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>00006</t>
+  </si>
+  <si>
+    <t>00008</t>
+  </si>
+  <si>
+    <t>00009</t>
+  </si>
+  <si>
+    <t>00011</t>
+  </si>
+  <si>
+    <t>user</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>user_permission</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>password_reset</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>company_profile</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>timeframe</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>plan</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>user_add</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>user_permission_change</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>password</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>company_profile_edit</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>timeframe_edit</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>plan_edit</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>00003</t>
+  </si>
+  <si>
+    <t>00004</t>
+  </si>
+  <si>
+    <t>00005</t>
+  </si>
+  <si>
+    <t>00007</t>
+  </si>
+  <si>
+    <t>00010</t>
+  </si>
+  <si>
     <t>0005</t>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>0006</t>
-    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0007</t>
   </si>
   <si>
     <t>0008</t>
+  </si>
+  <si>
+    <t>0009</t>
+  </si>
+  <si>
+    <t>user_delete</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0001</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0002</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0003</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0004</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0005</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0006</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0007</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0008</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0009</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -300,140 +265,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>00006</t>
-  </si>
-  <si>
-    <t>00008</t>
-  </si>
-  <si>
-    <t>00009</t>
-  </si>
-  <si>
-    <t>00011</t>
-  </si>
-  <si>
-    <t>00013</t>
-  </si>
-  <si>
-    <t>user</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>user_permission</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>password_reset</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>company_profile</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>timeframe</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>plan</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>payment</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>user_delete_self</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>user_add</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>user_permission_change</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>password</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>company_profile_edit</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>timeframe_edit</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>plan_edit</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>payment_view</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>00002</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>00003</t>
-  </si>
-  <si>
-    <t>00004</t>
-  </si>
-  <si>
-    <t>00005</t>
-  </si>
-  <si>
-    <t>00007</t>
-  </si>
-  <si>
-    <t>00010</t>
-  </si>
-  <si>
-    <t>00012</t>
-  </si>
-  <si>
-    <t>00014</t>
-  </si>
-  <si>
-    <t>0003</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>0004</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>0005</t>
-  </si>
-  <si>
-    <t>0006</t>
-  </si>
-  <si>
-    <t>0007</t>
-  </si>
-  <si>
-    <t>0007</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>0008</t>
-  </si>
-  <si>
-    <t>0009</t>
-  </si>
-  <si>
-    <t>0010</t>
-  </si>
-  <si>
-    <t>0011</t>
-  </si>
-  <si>
-    <t>user_delete</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -782,9 +614,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultRowHeight="20" x14ac:dyDescent="0.3"/>
   <cols>
@@ -843,11 +673,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView zoomScale="99" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="99" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultRowHeight="20" x14ac:dyDescent="0.3"/>
   <cols>
@@ -867,46 +695,46 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="C2" t="s">
-        <v>65</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>55</v>
+        <v>17</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>52</v>
+        <v>14</v>
       </c>
       <c r="C3" t="s">
-        <v>65</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>55</v>
+        <v>17</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>53</v>
+        <v>15</v>
       </c>
       <c r="C4" t="s">
-        <v>66</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>54</v>
+        <v>16</v>
       </c>
       <c r="C5" t="s">
-        <v>75</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -914,10 +742,10 @@
         <v>9</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>90</v>
+        <v>39</v>
       </c>
       <c r="C6" t="s">
-        <v>68</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
@@ -925,10 +753,10 @@
         <v>9</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>91</v>
+        <v>40</v>
       </c>
       <c r="C7" t="s">
-        <v>65</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
@@ -936,10 +764,10 @@
         <v>9</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>92</v>
+        <v>41</v>
       </c>
       <c r="C8" t="s">
-        <v>66</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
@@ -947,10 +775,10 @@
         <v>9</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>94</v>
+        <v>42</v>
       </c>
       <c r="C9" t="s">
-        <v>75</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
@@ -958,33 +786,14 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>95</v>
+        <v>43</v>
       </c>
       <c r="C10" t="s">
-        <v>69</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="C11" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>9</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="C12" t="s">
-        <v>71</v>
-      </c>
+      <c r="B11" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -994,11 +803,9 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultRowHeight="20" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1018,423 +825,123 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C2" t="s">
-        <v>72</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>80</v>
+        <v>55</v>
       </c>
       <c r="C3" t="s">
-        <v>73</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>81</v>
+        <v>34</v>
       </c>
       <c r="C4" t="s">
-        <v>72</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>82</v>
+        <v>35</v>
       </c>
       <c r="C5" t="s">
-        <v>98</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>88</v>
+        <v>48</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>83</v>
+        <v>36</v>
       </c>
       <c r="C6" t="s">
-        <v>74</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>89</v>
+        <v>48</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>60</v>
+        <v>18</v>
       </c>
       <c r="C7" t="s">
-        <v>67</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>84</v>
+        <v>37</v>
       </c>
       <c r="C8" t="s">
-        <v>76</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>61</v>
+        <v>19</v>
       </c>
       <c r="C9" t="s">
-        <v>73</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>62</v>
+        <v>20</v>
       </c>
       <c r="C10" t="s">
-        <v>98</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>93</v>
+        <v>52</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>85</v>
+        <v>38</v>
       </c>
       <c r="C11" t="s">
-        <v>74</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>63</v>
+        <v>21</v>
       </c>
       <c r="C12" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="C13" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C14" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="C15" t="s">
-        <v>79</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B43"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:D55"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="12" defaultRowHeight="20" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B8" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B9" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
         <v>33</v>
-      </c>
-      <c r="B10" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B11" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B12" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B13" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>38</v>
-      </c>
-      <c r="B14" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B15" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B16" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B17" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>39</v>
-      </c>
-      <c r="B18" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B19" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>17</v>
-      </c>
-      <c r="B20" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B21" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B22" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>23</v>
-      </c>
-      <c r="B23" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B24" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B25" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>24</v>
-      </c>
-      <c r="B26" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B27" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B28" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>42</v>
-      </c>
-      <c r="B29" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B30" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B31" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B32" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B33" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B34" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B35" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B36" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B37" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
-        <v>48</v>
-      </c>
-      <c r="B38" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B39" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B40" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
-        <v>49</v>
-      </c>
-      <c r="B41" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B42" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
-        <v>50</v>
-      </c>
-      <c r="B43" t="s">
-        <v>15</v>
       </c>
     </row>
   </sheetData>
